--- a/resources/NamingTable.xlsx
+++ b/resources/NamingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstern\Documents\GitHub\effective_property_tax\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80EDCCE-D90D-49FD-87E5-19BD6A37F2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4807894F-3467-40B3-BE4F-0973AD83B059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="naming" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">naming!$A$1:$F$2965</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">naming!$A$1:$F$2959</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13254" uniqueCount="5832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13230" uniqueCount="5832">
   <si>
     <t>County</t>
   </si>
@@ -18057,11 +18057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2965"/>
+  <dimension ref="A1:F2959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47986,7 +47986,7 @@
         <v>60</v>
       </c>
       <c r="F1798" t="str">
-        <f t="shared" ref="F1798:F1811" si="0">C1798</f>
+        <f>C1798</f>
         <v>VOLO SSA #9</v>
       </c>
     </row>
@@ -48004,7 +48004,7 @@
         <v>60</v>
       </c>
       <c r="F1799" t="str">
-        <f t="shared" si="0"/>
+        <f>C1799</f>
         <v>VOLO SSA #8</v>
       </c>
     </row>
@@ -48022,7 +48022,7 @@
         <v>60</v>
       </c>
       <c r="F1800" t="str">
-        <f t="shared" si="0"/>
+        <f>C1800</f>
         <v>VOLO SSA #6</v>
       </c>
     </row>
@@ -48040,7 +48040,7 @@
         <v>60</v>
       </c>
       <c r="F1801" t="str">
-        <f t="shared" si="0"/>
+        <f>C1801</f>
         <v>VOLO SSA #5</v>
       </c>
     </row>
@@ -48058,7 +48058,7 @@
         <v>60</v>
       </c>
       <c r="F1802" t="str">
-        <f t="shared" si="0"/>
+        <f>C1802</f>
         <v>VOLO SSA #4</v>
       </c>
     </row>
@@ -48076,7 +48076,7 @@
         <v>60</v>
       </c>
       <c r="F1803" t="str">
-        <f t="shared" si="0"/>
+        <f>C1803</f>
         <v>VOLO SSA #3</v>
       </c>
     </row>
@@ -48094,7 +48094,7 @@
         <v>60</v>
       </c>
       <c r="F1804" t="str">
-        <f t="shared" si="0"/>
+        <f>C1804</f>
         <v>VOLO SSA #2</v>
       </c>
     </row>
@@ -48112,7 +48112,7 @@
         <v>60</v>
       </c>
       <c r="F1805" t="str">
-        <f t="shared" si="0"/>
+        <f>C1805</f>
         <v>VOLO SSA #18</v>
       </c>
     </row>
@@ -48130,7 +48130,7 @@
         <v>60</v>
       </c>
       <c r="F1806" t="str">
-        <f t="shared" si="0"/>
+        <f>C1806</f>
         <v>VOLO SSA #17</v>
       </c>
     </row>
@@ -48148,7 +48148,7 @@
         <v>60</v>
       </c>
       <c r="F1807" t="str">
-        <f t="shared" si="0"/>
+        <f>C1807</f>
         <v>VOLO SSA #16</v>
       </c>
     </row>
@@ -48166,7 +48166,7 @@
         <v>60</v>
       </c>
       <c r="F1808" t="str">
-        <f t="shared" si="0"/>
+        <f>C1808</f>
         <v>VOLO SSA #15</v>
       </c>
     </row>
@@ -48184,7 +48184,7 @@
         <v>60</v>
       </c>
       <c r="F1809" t="str">
-        <f t="shared" si="0"/>
+        <f>C1809</f>
         <v>VOLO SSA #14</v>
       </c>
     </row>
@@ -48202,7 +48202,7 @@
         <v>60</v>
       </c>
       <c r="F1810" t="str">
-        <f t="shared" si="0"/>
+        <f>C1810</f>
         <v>VOLO SSA #11</v>
       </c>
     </row>
@@ -48220,7 +48220,7 @@
         <v>60</v>
       </c>
       <c r="F1811" t="str">
-        <f t="shared" si="0"/>
+        <f>C1811</f>
         <v>VOLO SSA #10</v>
       </c>
     </row>
@@ -48295,7 +48295,7 @@
         <v>60</v>
       </c>
       <c r="F1815" t="str">
-        <f t="shared" ref="F1815:F1820" si="1">C1815</f>
+        <f>C1815</f>
         <v>VERNON HILLS SSA #6</v>
       </c>
     </row>
@@ -48313,7 +48313,7 @@
         <v>60</v>
       </c>
       <c r="F1816" t="str">
-        <f t="shared" si="1"/>
+        <f>C1816</f>
         <v>VERNON HILLS SSA #5</v>
       </c>
     </row>
@@ -48331,7 +48331,7 @@
         <v>60</v>
       </c>
       <c r="F1817" t="str">
-        <f t="shared" si="1"/>
+        <f>C1817</f>
         <v>VERNON HILLS SSA #4</v>
       </c>
     </row>
@@ -48349,7 +48349,7 @@
         <v>60</v>
       </c>
       <c r="F1818" t="str">
-        <f t="shared" si="1"/>
+        <f>C1818</f>
         <v>VERNON HILLS SSA #3</v>
       </c>
     </row>
@@ -48367,7 +48367,7 @@
         <v>60</v>
       </c>
       <c r="F1819" t="str">
-        <f t="shared" si="1"/>
+        <f>C1819</f>
         <v>VERNON HILLS SSA #2</v>
       </c>
     </row>
@@ -48385,7 +48385,7 @@
         <v>60</v>
       </c>
       <c r="F1820" t="str">
-        <f t="shared" si="1"/>
+        <f>C1820</f>
         <v>VERNON HILLS SSA #1</v>
       </c>
     </row>
@@ -49394,7 +49394,7 @@
         <v>60</v>
       </c>
       <c r="F1879" t="str">
-        <f t="shared" ref="F1879:F1885" si="2">C1879</f>
+        <f>C1879</f>
         <v>ROUND LAKE SSA #4 - LAKEWOOD GROVE</v>
       </c>
     </row>
@@ -49412,7 +49412,7 @@
         <v>60</v>
       </c>
       <c r="F1880" t="str">
-        <f t="shared" si="2"/>
+        <f>C1880</f>
         <v>ROUND LAKE SSA #3 - LAKEWOOD GROVE</v>
       </c>
     </row>
@@ -49430,7 +49430,7 @@
         <v>60</v>
       </c>
       <c r="F1881" t="str">
-        <f t="shared" si="2"/>
+        <f>C1881</f>
         <v>ROUND LAKE SSA #2 - PW</v>
       </c>
     </row>
@@ -49448,7 +49448,7 @@
         <v>60</v>
       </c>
       <c r="F1882" t="str">
-        <f t="shared" si="2"/>
+        <f>C1882</f>
         <v>ROUND LAKE SSA #2 - LAKEWOOD GROVE</v>
       </c>
     </row>
@@ -49466,7 +49466,7 @@
         <v>60</v>
       </c>
       <c r="F1883" t="str">
-        <f t="shared" si="2"/>
+        <f>C1883</f>
         <v>ROUND LAKE SSA #1 - LAKEWOOD GROVE</v>
       </c>
     </row>
@@ -49484,7 +49484,7 @@
         <v>60</v>
       </c>
       <c r="F1884" t="str">
-        <f t="shared" si="2"/>
+        <f>C1884</f>
         <v>ROUND LAKE SSA #1 - BRIGHT MEADOWS</v>
       </c>
     </row>
@@ -49502,7 +49502,7 @@
         <v>60</v>
       </c>
       <c r="F1885" t="str">
-        <f t="shared" si="2"/>
+        <f>C1885</f>
         <v>ROUND LAKE SSA #1</v>
       </c>
     </row>
@@ -49765,7 +49765,7 @@
         <v>60</v>
       </c>
       <c r="F1899" t="str">
-        <f t="shared" ref="F1899:F1927" si="3">C1899</f>
+        <f>C1899</f>
         <v>RIVERWOODS SSA #9</v>
       </c>
     </row>
@@ -49783,7 +49783,7 @@
         <v>60</v>
       </c>
       <c r="F1900" t="str">
-        <f t="shared" si="3"/>
+        <f>C1900</f>
         <v>RIVERWOODS SSA #8</v>
       </c>
     </row>
@@ -49801,7 +49801,7 @@
         <v>60</v>
       </c>
       <c r="F1901" t="str">
-        <f t="shared" si="3"/>
+        <f>C1901</f>
         <v>RIVERWOODS SSA #7</v>
       </c>
     </row>
@@ -49819,7 +49819,7 @@
         <v>60</v>
       </c>
       <c r="F1902" t="str">
-        <f t="shared" si="3"/>
+        <f>C1902</f>
         <v>RIVERWOODS SSA #6</v>
       </c>
     </row>
@@ -49837,7 +49837,7 @@
         <v>60</v>
       </c>
       <c r="F1903" t="str">
-        <f t="shared" si="3"/>
+        <f>C1903</f>
         <v>RIVERWOODS SSA #5</v>
       </c>
     </row>
@@ -49855,7 +49855,7 @@
         <v>60</v>
       </c>
       <c r="F1904" t="str">
-        <f t="shared" si="3"/>
+        <f>C1904</f>
         <v>RIVERWOODS SSA #4</v>
       </c>
     </row>
@@ -49873,7 +49873,7 @@
         <v>60</v>
       </c>
       <c r="F1905" t="str">
-        <f t="shared" si="3"/>
+        <f>C1905</f>
         <v>RIVERWOODS SSA #32</v>
       </c>
     </row>
@@ -49891,7 +49891,7 @@
         <v>60</v>
       </c>
       <c r="F1906" t="str">
-        <f t="shared" si="3"/>
+        <f>C1906</f>
         <v>RIVERWOODS SSA #31</v>
       </c>
     </row>
@@ -49909,7 +49909,7 @@
         <v>60</v>
       </c>
       <c r="F1907" t="str">
-        <f t="shared" si="3"/>
+        <f>C1907</f>
         <v>RIVERWOODS SSA #30</v>
       </c>
     </row>
@@ -49927,7 +49927,7 @@
         <v>60</v>
       </c>
       <c r="F1908" t="str">
-        <f t="shared" si="3"/>
+        <f>C1908</f>
         <v>RIVERWOODS SSA #3</v>
       </c>
     </row>
@@ -49945,7 +49945,7 @@
         <v>60</v>
       </c>
       <c r="F1909" t="str">
-        <f t="shared" si="3"/>
+        <f>C1909</f>
         <v>RIVERWOODS SSA #29</v>
       </c>
     </row>
@@ -49963,7 +49963,7 @@
         <v>60</v>
       </c>
       <c r="F1910" t="str">
-        <f t="shared" si="3"/>
+        <f>C1910</f>
         <v>RIVERWOODS SSA #28</v>
       </c>
     </row>
@@ -49981,7 +49981,7 @@
         <v>60</v>
       </c>
       <c r="F1911" t="str">
-        <f t="shared" si="3"/>
+        <f>C1911</f>
         <v>RIVERWOODS SSA #27</v>
       </c>
     </row>
@@ -49999,7 +49999,7 @@
         <v>60</v>
       </c>
       <c r="F1912" t="str">
-        <f t="shared" si="3"/>
+        <f>C1912</f>
         <v>RIVERWOODS SSA #26</v>
       </c>
     </row>
@@ -50017,7 +50017,7 @@
         <v>60</v>
       </c>
       <c r="F1913" t="str">
-        <f t="shared" si="3"/>
+        <f>C1913</f>
         <v>RIVERWOODS SSA #25</v>
       </c>
     </row>
@@ -50035,7 +50035,7 @@
         <v>60</v>
       </c>
       <c r="F1914" t="str">
-        <f t="shared" si="3"/>
+        <f>C1914</f>
         <v>RIVERWOODS SSA #24</v>
       </c>
     </row>
@@ -50053,7 +50053,7 @@
         <v>60</v>
       </c>
       <c r="F1915" t="str">
-        <f t="shared" si="3"/>
+        <f>C1915</f>
         <v>RIVERWOODS SSA #23</v>
       </c>
     </row>
@@ -50071,7 +50071,7 @@
         <v>60</v>
       </c>
       <c r="F1916" t="str">
-        <f t="shared" si="3"/>
+        <f>C1916</f>
         <v>RIVERWOODS SSA #22</v>
       </c>
     </row>
@@ -50089,7 +50089,7 @@
         <v>60</v>
       </c>
       <c r="F1917" t="str">
-        <f t="shared" si="3"/>
+        <f>C1917</f>
         <v>RIVERWOODS SSA #21</v>
       </c>
     </row>
@@ -50107,7 +50107,7 @@
         <v>60</v>
       </c>
       <c r="F1918" t="str">
-        <f t="shared" si="3"/>
+        <f>C1918</f>
         <v>RIVERWOODS SSA #20</v>
       </c>
     </row>
@@ -50125,7 +50125,7 @@
         <v>60</v>
       </c>
       <c r="F1919" t="str">
-        <f t="shared" si="3"/>
+        <f>C1919</f>
         <v>RIVERWOODS SSA #19</v>
       </c>
     </row>
@@ -50143,7 +50143,7 @@
         <v>60</v>
       </c>
       <c r="F1920" t="str">
-        <f t="shared" si="3"/>
+        <f>C1920</f>
         <v>RIVERWOODS SSA #18</v>
       </c>
     </row>
@@ -50161,7 +50161,7 @@
         <v>60</v>
       </c>
       <c r="F1921" t="str">
-        <f t="shared" si="3"/>
+        <f>C1921</f>
         <v>RIVERWOODS SSA #17</v>
       </c>
     </row>
@@ -50179,7 +50179,7 @@
         <v>60</v>
       </c>
       <c r="F1922" t="str">
-        <f t="shared" si="3"/>
+        <f>C1922</f>
         <v>RIVERWOODS SSA #16</v>
       </c>
     </row>
@@ -50197,7 +50197,7 @@
         <v>60</v>
       </c>
       <c r="F1923" t="str">
-        <f t="shared" si="3"/>
+        <f>C1923</f>
         <v>RIVERWOODS SSA #15</v>
       </c>
     </row>
@@ -50215,7 +50215,7 @@
         <v>60</v>
       </c>
       <c r="F1924" t="str">
-        <f t="shared" si="3"/>
+        <f>C1924</f>
         <v>RIVERWOODS SSA #14</v>
       </c>
     </row>
@@ -50233,7 +50233,7 @@
         <v>60</v>
       </c>
       <c r="F1925" t="str">
-        <f t="shared" si="3"/>
+        <f>C1925</f>
         <v>RIVERWOODS SSA #12</v>
       </c>
     </row>
@@ -50251,7 +50251,7 @@
         <v>60</v>
       </c>
       <c r="F1926" t="str">
-        <f t="shared" si="3"/>
+        <f>C1926</f>
         <v>RIVERWOODS SSA #11</v>
       </c>
     </row>
@@ -50269,7 +50269,7 @@
         <v>60</v>
       </c>
       <c r="F1927" t="str">
-        <f t="shared" si="3"/>
+        <f>C1927</f>
         <v>RIVERWOODS SSA #10</v>
       </c>
     </row>
@@ -50460,7 +50460,7 @@
         <v>60</v>
       </c>
       <c r="F1937" t="str">
-        <f t="shared" ref="F1937:F1945" si="4">C1937</f>
+        <f>C1937</f>
         <v>NORTH BARRINGTON SSA #7</v>
       </c>
     </row>
@@ -50478,7 +50478,7 @@
         <v>60</v>
       </c>
       <c r="F1938" t="str">
-        <f t="shared" si="4"/>
+        <f>C1938</f>
         <v>NORTH BARRINGTON SSA #6</v>
       </c>
     </row>
@@ -50496,7 +50496,7 @@
         <v>60</v>
       </c>
       <c r="F1939" t="str">
-        <f t="shared" si="4"/>
+        <f>C1939</f>
         <v>NORTH BARRINGTON SSA #5</v>
       </c>
     </row>
@@ -50514,7 +50514,7 @@
         <v>60</v>
       </c>
       <c r="F1940" t="str">
-        <f t="shared" si="4"/>
+        <f>C1940</f>
         <v>NORTH BARRINGTON SSA #18</v>
       </c>
     </row>
@@ -50532,7 +50532,7 @@
         <v>60</v>
       </c>
       <c r="F1941" t="str">
-        <f t="shared" si="4"/>
+        <f>C1941</f>
         <v>NORTH BARRINGTON SSA #18</v>
       </c>
     </row>
@@ -50550,7 +50550,7 @@
         <v>60</v>
       </c>
       <c r="F1942" t="str">
-        <f t="shared" si="4"/>
+        <f>C1942</f>
         <v>NORTH BARRINGTON SSA #17</v>
       </c>
     </row>
@@ -50568,7 +50568,7 @@
         <v>60</v>
       </c>
       <c r="F1943" t="str">
-        <f t="shared" si="4"/>
+        <f>C1943</f>
         <v>NORTH BARRINGTON SSA #15</v>
       </c>
     </row>
@@ -50586,7 +50586,7 @@
         <v>60</v>
       </c>
       <c r="F1944" t="str">
-        <f t="shared" si="4"/>
+        <f>C1944</f>
         <v>NORTH BARRINGTON SSA #14</v>
       </c>
     </row>
@@ -50604,7 +50604,7 @@
         <v>60</v>
       </c>
       <c r="F1945" t="str">
-        <f t="shared" si="4"/>
+        <f>C1945</f>
         <v>NORTH BARRINGTON SSA #13</v>
       </c>
     </row>
@@ -50793,7 +50793,7 @@
         <v>60</v>
       </c>
       <c r="F1955" t="str">
-        <f t="shared" ref="F1955:F1966" si="5">C1955</f>
+        <f>C1955</f>
         <v>METTAWA SSA #8Z</v>
       </c>
     </row>
@@ -50811,7 +50811,7 @@
         <v>60</v>
       </c>
       <c r="F1956" t="str">
-        <f t="shared" si="5"/>
+        <f>C1956</f>
         <v>METTAWA SSA #8Y</v>
       </c>
     </row>
@@ -50829,7 +50829,7 @@
         <v>60</v>
       </c>
       <c r="F1957" t="str">
-        <f t="shared" si="5"/>
+        <f>C1957</f>
         <v>METTAWA SSA #8X</v>
       </c>
     </row>
@@ -50847,7 +50847,7 @@
         <v>60</v>
       </c>
       <c r="F1958" t="str">
-        <f t="shared" si="5"/>
+        <f>C1958</f>
         <v>METTAWA SSA #8W</v>
       </c>
     </row>
@@ -50865,7 +50865,7 @@
         <v>60</v>
       </c>
       <c r="F1959" t="str">
-        <f t="shared" si="5"/>
+        <f>C1959</f>
         <v>METTAWA SSA #8V</v>
       </c>
     </row>
@@ -50883,7 +50883,7 @@
         <v>60</v>
       </c>
       <c r="F1960" t="str">
-        <f t="shared" si="5"/>
+        <f>C1960</f>
         <v>METTAWA SSA #8U</v>
       </c>
     </row>
@@ -50901,7 +50901,7 @@
         <v>60</v>
       </c>
       <c r="F1961" t="str">
-        <f t="shared" si="5"/>
+        <f>C1961</f>
         <v>METTAWA SSA #8T</v>
       </c>
     </row>
@@ -50919,7 +50919,7 @@
         <v>60</v>
       </c>
       <c r="F1962" t="str">
-        <f t="shared" si="5"/>
+        <f>C1962</f>
         <v>METTAWA SSA #8S</v>
       </c>
     </row>
@@ -50937,7 +50937,7 @@
         <v>60</v>
       </c>
       <c r="F1963" t="str">
-        <f t="shared" si="5"/>
+        <f>C1963</f>
         <v>METTAWA SSA #8R</v>
       </c>
     </row>
@@ -50955,7 +50955,7 @@
         <v>60</v>
       </c>
       <c r="F1964" t="str">
-        <f t="shared" si="5"/>
+        <f>C1964</f>
         <v>METTAWA SSA #8Q</v>
       </c>
     </row>
@@ -50973,7 +50973,7 @@
         <v>60</v>
       </c>
       <c r="F1965" t="str">
-        <f t="shared" si="5"/>
+        <f>C1965</f>
         <v>METTAWA SSA #8P</v>
       </c>
     </row>
@@ -50991,7 +50991,7 @@
         <v>60</v>
       </c>
       <c r="F1966" t="str">
-        <f t="shared" si="5"/>
+        <f>C1966</f>
         <v>METTAWA SSA #8O</v>
       </c>
     </row>
@@ -51516,7 +51516,7 @@
         <v>60</v>
       </c>
       <c r="F1996" t="str">
-        <f t="shared" ref="F1996:F2010" si="6">C1996</f>
+        <f>C1996</f>
         <v>METTAWA SSA #6Q</v>
       </c>
     </row>
@@ -51534,7 +51534,7 @@
         <v>60</v>
       </c>
       <c r="F1997" t="str">
-        <f t="shared" si="6"/>
+        <f>C1997</f>
         <v>METTAWA SSA #6P</v>
       </c>
     </row>
@@ -51552,7 +51552,7 @@
         <v>60</v>
       </c>
       <c r="F1998" t="str">
-        <f t="shared" si="6"/>
+        <f>C1998</f>
         <v>METTAWA SSA #6O</v>
       </c>
     </row>
@@ -51570,7 +51570,7 @@
         <v>60</v>
       </c>
       <c r="F1999" t="str">
-        <f t="shared" si="6"/>
+        <f>C1999</f>
         <v>METTAWA SSA #6N</v>
       </c>
     </row>
@@ -51588,7 +51588,7 @@
         <v>60</v>
       </c>
       <c r="F2000" t="str">
-        <f t="shared" si="6"/>
+        <f>C2000</f>
         <v>METTAWA SSA #6M</v>
       </c>
     </row>
@@ -51606,7 +51606,7 @@
         <v>60</v>
       </c>
       <c r="F2001" t="str">
-        <f t="shared" si="6"/>
+        <f>C2001</f>
         <v>METTAWA SSA #6L</v>
       </c>
     </row>
@@ -51624,7 +51624,7 @@
         <v>60</v>
       </c>
       <c r="F2002" t="str">
-        <f t="shared" si="6"/>
+        <f>C2002</f>
         <v>METTAWA SSA #6K</v>
       </c>
     </row>
@@ -51642,7 +51642,7 @@
         <v>60</v>
       </c>
       <c r="F2003" t="str">
-        <f t="shared" si="6"/>
+        <f>C2003</f>
         <v>METTAWA SSA #6J</v>
       </c>
     </row>
@@ -51660,7 +51660,7 @@
         <v>60</v>
       </c>
       <c r="F2004" t="str">
-        <f t="shared" si="6"/>
+        <f>C2004</f>
         <v>METTAWA SSA #6I</v>
       </c>
     </row>
@@ -51678,7 +51678,7 @@
         <v>60</v>
       </c>
       <c r="F2005" t="str">
-        <f t="shared" si="6"/>
+        <f>C2005</f>
         <v>METTAWA SSA #6H</v>
       </c>
     </row>
@@ -51696,7 +51696,7 @@
         <v>60</v>
       </c>
       <c r="F2006" t="str">
-        <f t="shared" si="6"/>
+        <f>C2006</f>
         <v>METTAWA SSA #6G</v>
       </c>
     </row>
@@ -51714,7 +51714,7 @@
         <v>60</v>
       </c>
       <c r="F2007" t="str">
-        <f t="shared" si="6"/>
+        <f>C2007</f>
         <v>METTAWA SSA #6F</v>
       </c>
     </row>
@@ -51732,7 +51732,7 @@
         <v>60</v>
       </c>
       <c r="F2008" t="str">
-        <f t="shared" si="6"/>
+        <f>C2008</f>
         <v>METTAWA SSA #6E</v>
       </c>
     </row>
@@ -51750,7 +51750,7 @@
         <v>60</v>
       </c>
       <c r="F2009" t="str">
-        <f t="shared" si="6"/>
+        <f>C2009</f>
         <v>METTAWA SSA #6D</v>
       </c>
     </row>
@@ -51768,7 +51768,7 @@
         <v>60</v>
       </c>
       <c r="F2010" t="str">
-        <f t="shared" si="6"/>
+        <f>C2010</f>
         <v>METTAWA SSA #6C</v>
       </c>
     </row>
@@ -66178,7 +66178,7 @@
         <v>3092</v>
       </c>
       <c r="C2831" t="s">
-        <v>3060</v>
+        <v>5826</v>
       </c>
       <c r="D2831" t="s">
         <v>3061</v>
@@ -66398,7 +66398,7 @@
         <v>3114</v>
       </c>
       <c r="C2842" t="s">
-        <v>3060</v>
+        <v>5825</v>
       </c>
       <c r="D2842" t="s">
         <v>3061</v>
@@ -66415,19 +66415,19 @@
         <v>3034</v>
       </c>
       <c r="B2843" t="s">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="C2843" t="s">
         <v>3060</v>
       </c>
-      <c r="D2843" t="s">
-        <v>3061</v>
+      <c r="D2843">
+        <v>0</v>
       </c>
       <c r="E2843" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2843" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="2844" spans="1:6" x14ac:dyDescent="0.3">
@@ -66435,19 +66435,19 @@
         <v>3034</v>
       </c>
       <c r="B2844" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="C2844" t="s">
         <v>3060</v>
       </c>
-      <c r="D2844">
-        <v>0</v>
+      <c r="D2844" t="s">
+        <v>3061</v>
       </c>
       <c r="E2844" t="s">
-        <v>5470</v>
+        <v>60</v>
       </c>
       <c r="F2844" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="2845" spans="1:6" x14ac:dyDescent="0.3">
@@ -66675,7 +66675,7 @@
         <v>3034</v>
       </c>
       <c r="B2856" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="C2856" t="s">
         <v>3060</v>
@@ -66684,10 +66684,10 @@
         <v>3061</v>
       </c>
       <c r="E2856" t="s">
-        <v>60</v>
+        <v>3062</v>
       </c>
       <c r="F2856" t="s">
-        <v>3143</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="2857" spans="1:6" x14ac:dyDescent="0.3">
@@ -66695,19 +66695,19 @@
         <v>3034</v>
       </c>
       <c r="B2857" t="s">
-        <v>3144</v>
+        <v>3146</v>
       </c>
       <c r="C2857" t="s">
         <v>3060</v>
       </c>
-      <c r="D2857" s="11" t="s">
-        <v>3061</v>
-      </c>
-      <c r="E2857" t="s">
-        <v>3062</v>
+      <c r="D2857" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2857" s="3" t="s">
+        <v>5514</v>
       </c>
       <c r="F2857" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="2858" spans="1:6" x14ac:dyDescent="0.3">
@@ -66715,19 +66715,19 @@
         <v>3034</v>
       </c>
       <c r="B2858" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="C2858" t="s">
         <v>3060</v>
       </c>
-      <c r="D2858" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2858" s="3" t="s">
-        <v>5514</v>
+      <c r="D2858" s="11" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E2858" t="s">
+        <v>60</v>
       </c>
       <c r="F2858" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="2859" spans="1:6" x14ac:dyDescent="0.3">
@@ -66735,19 +66735,19 @@
         <v>3034</v>
       </c>
       <c r="B2859" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="C2859" t="s">
         <v>3060</v>
       </c>
-      <c r="D2859" s="11" t="s">
-        <v>3061</v>
+      <c r="D2859" s="11">
+        <v>0</v>
       </c>
       <c r="E2859" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2859" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="2860" spans="1:6" x14ac:dyDescent="0.3">
@@ -66755,7 +66755,7 @@
         <v>3034</v>
       </c>
       <c r="B2860" t="s">
-        <v>3150</v>
+        <v>3164</v>
       </c>
       <c r="C2860" t="s">
         <v>3060</v>
@@ -66764,10 +66764,10 @@
         <v>0</v>
       </c>
       <c r="E2860" t="s">
-        <v>5470</v>
+        <v>5515</v>
       </c>
       <c r="F2860" t="s">
-        <v>3151</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="2861" spans="1:6" x14ac:dyDescent="0.3">
@@ -66775,19 +66775,19 @@
         <v>3034</v>
       </c>
       <c r="B2861" t="s">
-        <v>3164</v>
+        <v>3148</v>
       </c>
       <c r="C2861" t="s">
-        <v>3060</v>
-      </c>
-      <c r="D2861" s="11">
-        <v>0</v>
+        <v>5827</v>
+      </c>
+      <c r="D2861" s="11" t="s">
+        <v>3061</v>
       </c>
       <c r="E2861" t="s">
-        <v>5515</v>
+        <v>60</v>
       </c>
       <c r="F2861" t="s">
-        <v>3165</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="2862" spans="1:6" x14ac:dyDescent="0.3">
@@ -66795,7 +66795,7 @@
         <v>3034</v>
       </c>
       <c r="B2862" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="C2862" t="s">
         <v>3060</v>
@@ -66804,10 +66804,10 @@
         <v>3061</v>
       </c>
       <c r="E2862" t="s">
-        <v>60</v>
+        <v>3062</v>
       </c>
       <c r="F2862" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="2863" spans="1:6" x14ac:dyDescent="0.3">
@@ -66815,19 +66815,19 @@
         <v>3034</v>
       </c>
       <c r="B2863" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="C2863" t="s">
         <v>3060</v>
       </c>
-      <c r="D2863" t="s">
-        <v>3061</v>
+      <c r="D2863">
+        <v>0</v>
       </c>
       <c r="E2863" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2863" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="2864" spans="1:6" x14ac:dyDescent="0.3">
@@ -66835,19 +66835,19 @@
         <v>3034</v>
       </c>
       <c r="B2864" t="s">
-        <v>3170</v>
+        <v>3180</v>
       </c>
       <c r="C2864" t="s">
         <v>3060</v>
       </c>
-      <c r="D2864" t="s">
-        <v>3061</v>
+      <c r="D2864">
+        <v>0</v>
       </c>
       <c r="E2864" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2864" t="s">
-        <v>3171</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="2865" spans="1:6" x14ac:dyDescent="0.3">
@@ -66855,19 +66855,19 @@
         <v>3034</v>
       </c>
       <c r="B2865" t="s">
-        <v>3176</v>
+        <v>3182</v>
       </c>
       <c r="C2865" t="s">
         <v>3060</v>
       </c>
-      <c r="D2865">
-        <v>0</v>
+      <c r="D2865" t="s">
+        <v>3061</v>
       </c>
       <c r="E2865" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2865" t="s">
-        <v>3177</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="2866" spans="1:6" x14ac:dyDescent="0.3">
@@ -66875,7 +66875,7 @@
         <v>3034</v>
       </c>
       <c r="B2866" t="s">
-        <v>3180</v>
+        <v>3221</v>
       </c>
       <c r="C2866" t="s">
         <v>3060</v>
@@ -66884,10 +66884,10 @@
         <v>0</v>
       </c>
       <c r="E2866" t="s">
-        <v>5470</v>
+        <v>5438</v>
       </c>
       <c r="F2866" t="s">
-        <v>3181</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="2867" spans="1:6" x14ac:dyDescent="0.3">
@@ -66895,19 +66895,19 @@
         <v>3034</v>
       </c>
       <c r="B2867" t="s">
-        <v>3182</v>
+        <v>3231</v>
       </c>
       <c r="C2867" t="s">
         <v>3060</v>
       </c>
-      <c r="D2867" t="s">
-        <v>3061</v>
+      <c r="D2867">
+        <v>0</v>
       </c>
       <c r="E2867" t="s">
-        <v>3062</v>
+        <v>5438</v>
       </c>
       <c r="F2867" t="s">
-        <v>3183</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="2868" spans="1:6" x14ac:dyDescent="0.3">
@@ -66915,7 +66915,7 @@
         <v>3034</v>
       </c>
       <c r="B2868" t="s">
-        <v>3221</v>
+        <v>3271</v>
       </c>
       <c r="C2868" t="s">
         <v>3060</v>
@@ -66927,7 +66927,7 @@
         <v>5438</v>
       </c>
       <c r="F2868" t="s">
-        <v>3222</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="2869" spans="1:6" x14ac:dyDescent="0.3">
@@ -66935,7 +66935,7 @@
         <v>3034</v>
       </c>
       <c r="B2869" t="s">
-        <v>3231</v>
+        <v>3307</v>
       </c>
       <c r="C2869" t="s">
         <v>3060</v>
@@ -66947,7 +66947,7 @@
         <v>5438</v>
       </c>
       <c r="F2869" t="s">
-        <v>3232</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="2870" spans="1:6" x14ac:dyDescent="0.3">
@@ -66955,7 +66955,7 @@
         <v>3034</v>
       </c>
       <c r="B2870" t="s">
-        <v>3271</v>
+        <v>3317</v>
       </c>
       <c r="C2870" t="s">
         <v>3060</v>
@@ -66967,7 +66967,7 @@
         <v>5438</v>
       </c>
       <c r="F2870" t="s">
-        <v>3272</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="2871" spans="1:6" x14ac:dyDescent="0.3">
@@ -66975,7 +66975,7 @@
         <v>3034</v>
       </c>
       <c r="B2871" t="s">
-        <v>3307</v>
+        <v>3351</v>
       </c>
       <c r="C2871" t="s">
         <v>3060</v>
@@ -66987,7 +66987,7 @@
         <v>5438</v>
       </c>
       <c r="F2871" t="s">
-        <v>3308</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="2872" spans="1:6" x14ac:dyDescent="0.3">
@@ -66995,7 +66995,7 @@
         <v>3034</v>
       </c>
       <c r="B2872" t="s">
-        <v>3317</v>
+        <v>3361</v>
       </c>
       <c r="C2872" t="s">
         <v>3060</v>
@@ -67007,7 +67007,7 @@
         <v>5438</v>
       </c>
       <c r="F2872" t="s">
-        <v>3318</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="2873" spans="1:6" x14ac:dyDescent="0.3">
@@ -67015,19 +67015,19 @@
         <v>3034</v>
       </c>
       <c r="B2873" t="s">
-        <v>3351</v>
+        <v>3369</v>
       </c>
       <c r="C2873" t="s">
         <v>3060</v>
       </c>
-      <c r="D2873">
-        <v>0</v>
+      <c r="D2873" t="s">
+        <v>3061</v>
       </c>
       <c r="E2873" t="s">
-        <v>5438</v>
+        <v>3062</v>
       </c>
       <c r="F2873" t="s">
-        <v>3352</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="2874" spans="1:6" x14ac:dyDescent="0.3">
@@ -67035,7 +67035,7 @@
         <v>3034</v>
       </c>
       <c r="B2874" t="s">
-        <v>3361</v>
+        <v>3371</v>
       </c>
       <c r="C2874" t="s">
         <v>3060</v>
@@ -67047,7 +67047,7 @@
         <v>5438</v>
       </c>
       <c r="F2874" t="s">
-        <v>3362</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="2875" spans="1:6" x14ac:dyDescent="0.3">
@@ -67055,19 +67055,19 @@
         <v>3034</v>
       </c>
       <c r="B2875" t="s">
-        <v>3369</v>
+        <v>3397</v>
       </c>
       <c r="C2875" t="s">
         <v>3060</v>
       </c>
-      <c r="D2875" t="s">
-        <v>3061</v>
+      <c r="D2875">
+        <v>0</v>
       </c>
       <c r="E2875" t="s">
-        <v>3062</v>
+        <v>5438</v>
       </c>
       <c r="F2875" t="s">
-        <v>3370</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="2876" spans="1:6" x14ac:dyDescent="0.3">
@@ -67075,7 +67075,7 @@
         <v>3034</v>
       </c>
       <c r="B2876" t="s">
-        <v>3371</v>
+        <v>3414</v>
       </c>
       <c r="C2876" t="s">
         <v>3060</v>
@@ -67087,7 +67087,7 @@
         <v>5438</v>
       </c>
       <c r="F2876" t="s">
-        <v>3372</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="2877" spans="1:6" x14ac:dyDescent="0.3">
@@ -67095,7 +67095,7 @@
         <v>3034</v>
       </c>
       <c r="B2877" t="s">
-        <v>3397</v>
+        <v>3443</v>
       </c>
       <c r="C2877" t="s">
         <v>3060</v>
@@ -67107,7 +67107,7 @@
         <v>5438</v>
       </c>
       <c r="F2877" t="s">
-        <v>3398</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="2878" spans="1:6" x14ac:dyDescent="0.3">
@@ -67115,7 +67115,7 @@
         <v>3034</v>
       </c>
       <c r="B2878" t="s">
-        <v>3414</v>
+        <v>3457</v>
       </c>
       <c r="C2878" t="s">
         <v>3060</v>
@@ -67127,7 +67127,7 @@
         <v>5438</v>
       </c>
       <c r="F2878" t="s">
-        <v>3415</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="2879" spans="1:6" x14ac:dyDescent="0.3">
@@ -67135,19 +67135,19 @@
         <v>3034</v>
       </c>
       <c r="B2879" t="s">
-        <v>3443</v>
+        <v>3166</v>
       </c>
       <c r="C2879" t="s">
         <v>3060</v>
       </c>
-      <c r="D2879">
-        <v>0</v>
+      <c r="D2879" t="s">
+        <v>3061</v>
       </c>
       <c r="E2879" t="s">
-        <v>5438</v>
+        <v>60</v>
       </c>
       <c r="F2879" t="s">
-        <v>3444</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="2880" spans="1:6" x14ac:dyDescent="0.3">
@@ -67155,7 +67155,7 @@
         <v>3034</v>
       </c>
       <c r="B2880" t="s">
-        <v>3457</v>
+        <v>3505</v>
       </c>
       <c r="C2880" t="s">
         <v>3060</v>
@@ -67167,7 +67167,7 @@
         <v>5438</v>
       </c>
       <c r="F2880" t="s">
-        <v>3458</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="2881" spans="1:6" x14ac:dyDescent="0.3">
@@ -67175,19 +67175,19 @@
         <v>3034</v>
       </c>
       <c r="B2881" t="s">
-        <v>3475</v>
+        <v>3520</v>
       </c>
       <c r="C2881" t="s">
         <v>3060</v>
       </c>
-      <c r="D2881" t="s">
-        <v>3061</v>
+      <c r="D2881">
+        <v>0</v>
       </c>
       <c r="E2881" t="s">
-        <v>60</v>
+        <v>5438</v>
       </c>
       <c r="F2881" t="s">
-        <v>3476</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2882" spans="1:6" x14ac:dyDescent="0.3">
@@ -67195,7 +67195,7 @@
         <v>3034</v>
       </c>
       <c r="B2882" t="s">
-        <v>3505</v>
+        <v>3534</v>
       </c>
       <c r="C2882" t="s">
         <v>3060</v>
@@ -67207,7 +67207,7 @@
         <v>5438</v>
       </c>
       <c r="F2882" t="s">
-        <v>3506</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="2883" spans="1:6" x14ac:dyDescent="0.3">
@@ -67215,7 +67215,7 @@
         <v>3034</v>
       </c>
       <c r="B2883" t="s">
-        <v>3520</v>
+        <v>3701</v>
       </c>
       <c r="C2883" t="s">
         <v>3060</v>
@@ -67227,7 +67227,7 @@
         <v>5438</v>
       </c>
       <c r="F2883" t="s">
-        <v>3521</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="2884" spans="1:6" x14ac:dyDescent="0.3">
@@ -67235,7 +67235,7 @@
         <v>3034</v>
       </c>
       <c r="B2884" t="s">
-        <v>3534</v>
+        <v>3713</v>
       </c>
       <c r="C2884" t="s">
         <v>3060</v>
@@ -67244,10 +67244,10 @@
         <v>0</v>
       </c>
       <c r="E2884" t="s">
-        <v>5438</v>
+        <v>5470</v>
       </c>
       <c r="F2884" t="s">
-        <v>3535</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="2885" spans="1:6" x14ac:dyDescent="0.3">
@@ -67255,19 +67255,19 @@
         <v>3034</v>
       </c>
       <c r="B2885" t="s">
-        <v>3701</v>
+        <v>3168</v>
       </c>
       <c r="C2885" t="s">
         <v>3060</v>
       </c>
-      <c r="D2885">
-        <v>0</v>
+      <c r="D2885" t="s">
+        <v>3061</v>
       </c>
       <c r="E2885" t="s">
-        <v>5438</v>
+        <v>60</v>
       </c>
       <c r="F2885" t="s">
-        <v>3702</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="2886" spans="1:6" x14ac:dyDescent="0.3">
@@ -67275,7 +67275,7 @@
         <v>3034</v>
       </c>
       <c r="B2886" t="s">
-        <v>3713</v>
+        <v>3717</v>
       </c>
       <c r="C2886" t="s">
         <v>3060</v>
@@ -67287,7 +67287,7 @@
         <v>5470</v>
       </c>
       <c r="F2886" t="s">
-        <v>3714</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="2887" spans="1:6" x14ac:dyDescent="0.3">
@@ -67295,7 +67295,7 @@
         <v>3034</v>
       </c>
       <c r="B2887" t="s">
-        <v>3715</v>
+        <v>3719</v>
       </c>
       <c r="C2887" t="s">
         <v>3060</v>
@@ -67304,10 +67304,10 @@
         <v>3061</v>
       </c>
       <c r="E2887" t="s">
-        <v>60</v>
+        <v>3062</v>
       </c>
       <c r="F2887" t="s">
-        <v>3716</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="2888" spans="1:6" x14ac:dyDescent="0.3">
@@ -67315,19 +67315,19 @@
         <v>3034</v>
       </c>
       <c r="B2888" t="s">
-        <v>3717</v>
+        <v>3721</v>
       </c>
       <c r="C2888" t="s">
         <v>3060</v>
       </c>
-      <c r="D2888">
-        <v>0</v>
+      <c r="D2888" t="s">
+        <v>3061</v>
       </c>
       <c r="E2888" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2888" t="s">
-        <v>3718</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="2889" spans="1:6" x14ac:dyDescent="0.3">
@@ -67335,19 +67335,19 @@
         <v>3034</v>
       </c>
       <c r="B2889" t="s">
-        <v>3719</v>
+        <v>3723</v>
       </c>
       <c r="C2889" t="s">
         <v>3060</v>
       </c>
-      <c r="D2889" t="s">
-        <v>3061</v>
+      <c r="D2889">
+        <v>0</v>
       </c>
       <c r="E2889" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2889" t="s">
-        <v>3720</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="2890" spans="1:6" x14ac:dyDescent="0.3">
@@ -67355,19 +67355,19 @@
         <v>3034</v>
       </c>
       <c r="B2890" t="s">
-        <v>3721</v>
+        <v>3725</v>
       </c>
       <c r="C2890" t="s">
         <v>3060</v>
       </c>
-      <c r="D2890" t="s">
-        <v>3061</v>
+      <c r="D2890">
+        <v>0</v>
       </c>
       <c r="E2890" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2890" t="s">
-        <v>3722</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="2891" spans="1:6" x14ac:dyDescent="0.3">
@@ -67375,19 +67375,19 @@
         <v>3034</v>
       </c>
       <c r="B2891" t="s">
-        <v>3723</v>
+        <v>3727</v>
       </c>
       <c r="C2891" t="s">
         <v>3060</v>
       </c>
-      <c r="D2891">
-        <v>0</v>
+      <c r="D2891" t="s">
+        <v>3061</v>
       </c>
       <c r="E2891" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2891" t="s">
-        <v>3724</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="2892" spans="1:6" x14ac:dyDescent="0.3">
@@ -67395,7 +67395,7 @@
         <v>3034</v>
       </c>
       <c r="B2892" t="s">
-        <v>3725</v>
+        <v>3729</v>
       </c>
       <c r="C2892" t="s">
         <v>3060</v>
@@ -67407,7 +67407,7 @@
         <v>5470</v>
       </c>
       <c r="F2892" t="s">
-        <v>3726</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="2893" spans="1:6" x14ac:dyDescent="0.3">
@@ -67415,19 +67415,19 @@
         <v>3034</v>
       </c>
       <c r="B2893" t="s">
-        <v>3727</v>
+        <v>3475</v>
       </c>
       <c r="C2893" t="s">
-        <v>3060</v>
+        <v>5828</v>
       </c>
       <c r="D2893" t="s">
         <v>3061</v>
       </c>
       <c r="E2893" t="s">
-        <v>3062</v>
+        <v>60</v>
       </c>
       <c r="F2893" t="s">
-        <v>3728</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="2894" spans="1:6" x14ac:dyDescent="0.3">
@@ -67435,19 +67435,19 @@
         <v>3034</v>
       </c>
       <c r="B2894" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
       <c r="C2894" t="s">
         <v>3060</v>
       </c>
-      <c r="D2894">
-        <v>0</v>
+      <c r="D2894" t="s">
+        <v>3061</v>
       </c>
       <c r="E2894" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2894" t="s">
-        <v>3730</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="2895" spans="1:6" x14ac:dyDescent="0.3">
@@ -67455,19 +67455,19 @@
         <v>3034</v>
       </c>
       <c r="B2895" t="s">
-        <v>3731</v>
+        <v>3735</v>
       </c>
       <c r="C2895" t="s">
         <v>3060</v>
       </c>
-      <c r="D2895" t="s">
-        <v>3061</v>
+      <c r="D2895">
+        <v>0</v>
       </c>
       <c r="E2895" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2895" t="s">
-        <v>3732</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="2896" spans="1:6" x14ac:dyDescent="0.3">
@@ -67475,19 +67475,19 @@
         <v>3034</v>
       </c>
       <c r="B2896" t="s">
-        <v>3733</v>
+        <v>3737</v>
       </c>
       <c r="C2896" t="s">
         <v>3060</v>
       </c>
-      <c r="D2896" t="s">
-        <v>3061</v>
+      <c r="D2896">
+        <v>0</v>
       </c>
       <c r="E2896" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2896" t="s">
-        <v>3734</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="2897" spans="1:6" x14ac:dyDescent="0.3">
@@ -67495,19 +67495,19 @@
         <v>3034</v>
       </c>
       <c r="B2897" t="s">
-        <v>3735</v>
+        <v>3715</v>
       </c>
       <c r="C2897" t="s">
-        <v>3060</v>
-      </c>
-      <c r="D2897">
-        <v>0</v>
+        <v>5824</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>3061</v>
       </c>
       <c r="E2897" t="s">
-        <v>5470</v>
+        <v>60</v>
       </c>
       <c r="F2897" t="s">
-        <v>3736</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="2898" spans="1:6" x14ac:dyDescent="0.3">
@@ -67515,7 +67515,7 @@
         <v>3034</v>
       </c>
       <c r="B2898" t="s">
-        <v>3737</v>
+        <v>3741</v>
       </c>
       <c r="C2898" t="s">
         <v>3060</v>
@@ -67527,7 +67527,7 @@
         <v>5470</v>
       </c>
       <c r="F2898" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="2899" spans="1:6" x14ac:dyDescent="0.3">
@@ -67535,19 +67535,19 @@
         <v>3034</v>
       </c>
       <c r="B2899" t="s">
-        <v>3739</v>
+        <v>3743</v>
       </c>
       <c r="C2899" t="s">
         <v>3060</v>
       </c>
-      <c r="D2899" t="s">
-        <v>3061</v>
+      <c r="D2899">
+        <v>0</v>
       </c>
       <c r="E2899" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2899" t="s">
-        <v>3740</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="2900" spans="1:6" x14ac:dyDescent="0.3">
@@ -67555,7 +67555,7 @@
         <v>3034</v>
       </c>
       <c r="B2900" t="s">
-        <v>3741</v>
+        <v>3745</v>
       </c>
       <c r="C2900" t="s">
         <v>3060</v>
@@ -67567,7 +67567,7 @@
         <v>5470</v>
       </c>
       <c r="F2900" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="2901" spans="1:6" x14ac:dyDescent="0.3">
@@ -67575,7 +67575,7 @@
         <v>3034</v>
       </c>
       <c r="B2901" t="s">
-        <v>3743</v>
+        <v>3747</v>
       </c>
       <c r="C2901" t="s">
         <v>3060</v>
@@ -67587,7 +67587,7 @@
         <v>5470</v>
       </c>
       <c r="F2901" t="s">
-        <v>3744</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="2902" spans="1:6" x14ac:dyDescent="0.3">
@@ -67595,7 +67595,7 @@
         <v>3034</v>
       </c>
       <c r="B2902" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
       <c r="C2902" t="s">
         <v>3060</v>
@@ -67607,7 +67607,7 @@
         <v>5470</v>
       </c>
       <c r="F2902" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="2903" spans="1:6" x14ac:dyDescent="0.3">
@@ -67615,7 +67615,7 @@
         <v>3034</v>
       </c>
       <c r="B2903" t="s">
-        <v>3747</v>
+        <v>3751</v>
       </c>
       <c r="C2903" t="s">
         <v>3060</v>
@@ -67627,7 +67627,7 @@
         <v>5470</v>
       </c>
       <c r="F2903" t="s">
-        <v>3748</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="2904" spans="1:6" x14ac:dyDescent="0.3">
@@ -67635,7 +67635,7 @@
         <v>3034</v>
       </c>
       <c r="B2904" t="s">
-        <v>3749</v>
+        <v>3753</v>
       </c>
       <c r="C2904" t="s">
         <v>3060</v>
@@ -67647,7 +67647,7 @@
         <v>5470</v>
       </c>
       <c r="F2904" t="s">
-        <v>3750</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="2905" spans="1:6" x14ac:dyDescent="0.3">
@@ -67655,19 +67655,19 @@
         <v>3034</v>
       </c>
       <c r="B2905" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="C2905" t="s">
         <v>3060</v>
       </c>
-      <c r="D2905">
-        <v>0</v>
+      <c r="D2905" t="s">
+        <v>3061</v>
       </c>
       <c r="E2905" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2905" t="s">
-        <v>3752</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="2906" spans="1:6" x14ac:dyDescent="0.3">
@@ -67675,19 +67675,19 @@
         <v>3034</v>
       </c>
       <c r="B2906" t="s">
-        <v>3753</v>
+        <v>3757</v>
       </c>
       <c r="C2906" t="s">
         <v>3060</v>
       </c>
-      <c r="D2906">
-        <v>0</v>
+      <c r="D2906" t="s">
+        <v>3061</v>
       </c>
       <c r="E2906" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2906" t="s">
-        <v>3754</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="2907" spans="1:6" x14ac:dyDescent="0.3">
@@ -67695,7 +67695,7 @@
         <v>3034</v>
       </c>
       <c r="B2907" t="s">
-        <v>3755</v>
+        <v>3759</v>
       </c>
       <c r="C2907" t="s">
         <v>3060</v>
@@ -67707,7 +67707,7 @@
         <v>3062</v>
       </c>
       <c r="F2907" t="s">
-        <v>3756</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="2908" spans="1:6" x14ac:dyDescent="0.3">
@@ -67715,19 +67715,19 @@
         <v>3034</v>
       </c>
       <c r="B2908" t="s">
-        <v>3757</v>
+        <v>3761</v>
       </c>
       <c r="C2908" t="s">
         <v>3060</v>
       </c>
-      <c r="D2908" t="s">
-        <v>3061</v>
+      <c r="D2908">
+        <v>0</v>
       </c>
       <c r="E2908" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2908" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="2909" spans="1:6" x14ac:dyDescent="0.3">
@@ -67735,7 +67735,7 @@
         <v>3034</v>
       </c>
       <c r="B2909" t="s">
-        <v>3759</v>
+        <v>3765</v>
       </c>
       <c r="C2909" t="s">
         <v>3060</v>
@@ -67747,7 +67747,7 @@
         <v>3062</v>
       </c>
       <c r="F2909" t="s">
-        <v>3760</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="2910" spans="1:6" x14ac:dyDescent="0.3">
@@ -67755,7 +67755,7 @@
         <v>3034</v>
       </c>
       <c r="B2910" t="s">
-        <v>3761</v>
+        <v>3767</v>
       </c>
       <c r="C2910" t="s">
         <v>3060</v>
@@ -67763,11 +67763,11 @@
       <c r="D2910">
         <v>0</v>
       </c>
-      <c r="E2910" t="s">
-        <v>5470</v>
+      <c r="E2910" s="3" t="s">
+        <v>5514</v>
       </c>
       <c r="F2910" t="s">
-        <v>3762</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="2911" spans="1:6" x14ac:dyDescent="0.3">
@@ -67775,19 +67775,19 @@
         <v>3034</v>
       </c>
       <c r="B2911" t="s">
-        <v>3763</v>
+        <v>3769</v>
       </c>
       <c r="C2911" t="s">
         <v>3060</v>
       </c>
-      <c r="D2911" t="s">
-        <v>3061</v>
+      <c r="D2911">
+        <v>0</v>
       </c>
       <c r="E2911" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2911" t="s">
-        <v>3764</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="2912" spans="1:6" x14ac:dyDescent="0.3">
@@ -67795,19 +67795,19 @@
         <v>3034</v>
       </c>
       <c r="B2912" t="s">
-        <v>3765</v>
+        <v>3771</v>
       </c>
       <c r="C2912" t="s">
         <v>3060</v>
       </c>
-      <c r="D2912" t="s">
-        <v>3061</v>
+      <c r="D2912">
+        <v>0</v>
       </c>
       <c r="E2912" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2912" t="s">
-        <v>3766</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="2913" spans="1:6" x14ac:dyDescent="0.3">
@@ -67815,7 +67815,7 @@
         <v>3034</v>
       </c>
       <c r="B2913" t="s">
-        <v>3767</v>
+        <v>3773</v>
       </c>
       <c r="C2913" t="s">
         <v>3060</v>
@@ -67823,11 +67823,11 @@
       <c r="D2913">
         <v>0</v>
       </c>
-      <c r="E2913" s="3" t="s">
-        <v>5514</v>
+      <c r="E2913" t="s">
+        <v>5470</v>
       </c>
       <c r="F2913" t="s">
-        <v>3768</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="2914" spans="1:6" x14ac:dyDescent="0.3">
@@ -67835,7 +67835,7 @@
         <v>3034</v>
       </c>
       <c r="B2914" t="s">
-        <v>3769</v>
+        <v>3775</v>
       </c>
       <c r="C2914" t="s">
         <v>3060</v>
@@ -67843,11 +67843,11 @@
       <c r="D2914">
         <v>0</v>
       </c>
-      <c r="E2914" t="s">
-        <v>5470</v>
+      <c r="E2914" s="3" t="s">
+        <v>5514</v>
       </c>
       <c r="F2914" t="s">
-        <v>3770</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="2915" spans="1:6" x14ac:dyDescent="0.3">
@@ -67855,7 +67855,7 @@
         <v>3034</v>
       </c>
       <c r="B2915" t="s">
-        <v>3771</v>
+        <v>3777</v>
       </c>
       <c r="C2915" t="s">
         <v>3060</v>
@@ -67867,7 +67867,7 @@
         <v>5470</v>
       </c>
       <c r="F2915" t="s">
-        <v>3772</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="2916" spans="1:6" x14ac:dyDescent="0.3">
@@ -67875,19 +67875,19 @@
         <v>3034</v>
       </c>
       <c r="B2916" t="s">
-        <v>3773</v>
+        <v>3779</v>
       </c>
       <c r="C2916" t="s">
         <v>3060</v>
       </c>
-      <c r="D2916">
-        <v>0</v>
+      <c r="D2916" t="s">
+        <v>3061</v>
       </c>
       <c r="E2916" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2916" t="s">
-        <v>3774</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="2917" spans="1:6" x14ac:dyDescent="0.3">
@@ -67895,7 +67895,7 @@
         <v>3034</v>
       </c>
       <c r="B2917" t="s">
-        <v>3775</v>
+        <v>3781</v>
       </c>
       <c r="C2917" t="s">
         <v>3060</v>
@@ -67903,11 +67903,11 @@
       <c r="D2917">
         <v>0</v>
       </c>
-      <c r="E2917" s="3" t="s">
-        <v>5514</v>
+      <c r="E2917" t="s">
+        <v>5470</v>
       </c>
       <c r="F2917" t="s">
-        <v>3776</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2918" spans="1:6" x14ac:dyDescent="0.3">
@@ -67915,19 +67915,19 @@
         <v>3034</v>
       </c>
       <c r="B2918" t="s">
-        <v>3777</v>
+        <v>3783</v>
       </c>
       <c r="C2918" t="s">
         <v>3060</v>
       </c>
-      <c r="D2918">
-        <v>0</v>
+      <c r="D2918" t="s">
+        <v>3061</v>
       </c>
       <c r="E2918" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2918" t="s">
-        <v>3778</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="2919" spans="1:6" x14ac:dyDescent="0.3">
@@ -67935,19 +67935,19 @@
         <v>3034</v>
       </c>
       <c r="B2919" t="s">
-        <v>3779</v>
+        <v>3785</v>
       </c>
       <c r="C2919" t="s">
         <v>3060</v>
       </c>
-      <c r="D2919" t="s">
-        <v>3061</v>
+      <c r="D2919">
+        <v>0</v>
       </c>
       <c r="E2919" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2919" t="s">
-        <v>3780</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="2920" spans="1:6" x14ac:dyDescent="0.3">
@@ -67955,7 +67955,7 @@
         <v>3034</v>
       </c>
       <c r="B2920" t="s">
-        <v>3781</v>
+        <v>3787</v>
       </c>
       <c r="C2920" t="s">
         <v>3060</v>
@@ -67964,10 +67964,10 @@
         <v>0</v>
       </c>
       <c r="E2920" t="s">
-        <v>5470</v>
+        <v>5515</v>
       </c>
       <c r="F2920" t="s">
-        <v>3782</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="2921" spans="1:6" x14ac:dyDescent="0.3">
@@ -67975,7 +67975,7 @@
         <v>3034</v>
       </c>
       <c r="B2921" t="s">
-        <v>3783</v>
+        <v>3789</v>
       </c>
       <c r="C2921" t="s">
         <v>3060</v>
@@ -67987,7 +67987,7 @@
         <v>3062</v>
       </c>
       <c r="F2921" t="s">
-        <v>3784</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="2922" spans="1:6" x14ac:dyDescent="0.3">
@@ -67995,19 +67995,19 @@
         <v>3034</v>
       </c>
       <c r="B2922" t="s">
-        <v>3785</v>
+        <v>3791</v>
       </c>
       <c r="C2922" t="s">
         <v>3060</v>
       </c>
-      <c r="D2922">
-        <v>0</v>
+      <c r="D2922" t="s">
+        <v>3061</v>
       </c>
       <c r="E2922" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2922" t="s">
-        <v>3786</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="2923" spans="1:6" x14ac:dyDescent="0.3">
@@ -68015,19 +68015,19 @@
         <v>3034</v>
       </c>
       <c r="B2923" t="s">
-        <v>3787</v>
+        <v>3793</v>
       </c>
       <c r="C2923" t="s">
         <v>3060</v>
       </c>
-      <c r="D2923">
-        <v>0</v>
+      <c r="D2923" t="s">
+        <v>3061</v>
       </c>
       <c r="E2923" t="s">
-        <v>5515</v>
+        <v>3062</v>
       </c>
       <c r="F2923" t="s">
-        <v>3788</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="2924" spans="1:6" x14ac:dyDescent="0.3">
@@ -68035,19 +68035,19 @@
         <v>3034</v>
       </c>
       <c r="B2924" t="s">
-        <v>3789</v>
+        <v>3795</v>
       </c>
       <c r="C2924" t="s">
         <v>3060</v>
       </c>
-      <c r="D2924" t="s">
-        <v>3061</v>
+      <c r="D2924">
+        <v>0</v>
       </c>
       <c r="E2924" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2924" t="s">
-        <v>3790</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2925" spans="1:6" x14ac:dyDescent="0.3">
@@ -68055,19 +68055,19 @@
         <v>3034</v>
       </c>
       <c r="B2925" t="s">
-        <v>3791</v>
+        <v>3797</v>
       </c>
       <c r="C2925" t="s">
         <v>3060</v>
       </c>
-      <c r="D2925" t="s">
-        <v>3061</v>
+      <c r="D2925">
+        <v>0</v>
       </c>
       <c r="E2925" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2925" t="s">
-        <v>3792</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="2926" spans="1:6" x14ac:dyDescent="0.3">
@@ -68075,19 +68075,19 @@
         <v>3034</v>
       </c>
       <c r="B2926" t="s">
-        <v>3793</v>
+        <v>3731</v>
       </c>
       <c r="C2926" t="s">
-        <v>3060</v>
+        <v>5829</v>
       </c>
       <c r="D2926" t="s">
         <v>3061</v>
       </c>
       <c r="E2926" t="s">
-        <v>3062</v>
+        <v>60</v>
       </c>
       <c r="F2926" t="s">
-        <v>3794</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="2927" spans="1:6" x14ac:dyDescent="0.3">
@@ -68095,19 +68095,19 @@
         <v>3034</v>
       </c>
       <c r="B2927" t="s">
-        <v>3795</v>
+        <v>3739</v>
       </c>
       <c r="C2927" t="s">
         <v>3060</v>
       </c>
-      <c r="D2927">
-        <v>0</v>
+      <c r="D2927" t="s">
+        <v>3061</v>
       </c>
       <c r="E2927" t="s">
-        <v>5470</v>
+        <v>60</v>
       </c>
       <c r="F2927" t="s">
-        <v>3796</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="2928" spans="1:6" x14ac:dyDescent="0.3">
@@ -68115,19 +68115,19 @@
         <v>3034</v>
       </c>
       <c r="B2928" t="s">
-        <v>3797</v>
+        <v>3763</v>
       </c>
       <c r="C2928" t="s">
         <v>3060</v>
       </c>
-      <c r="D2928">
-        <v>0</v>
+      <c r="D2928" t="s">
+        <v>3061</v>
       </c>
       <c r="E2928" t="s">
-        <v>5470</v>
+        <v>60</v>
       </c>
       <c r="F2928" t="s">
-        <v>3798</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="2929" spans="1:6" x14ac:dyDescent="0.3">
@@ -68135,19 +68135,19 @@
         <v>3034</v>
       </c>
       <c r="B2929" t="s">
-        <v>3799</v>
+        <v>3807</v>
       </c>
       <c r="C2929" t="s">
         <v>3060</v>
       </c>
-      <c r="D2929" t="s">
-        <v>3061</v>
+      <c r="D2929">
+        <v>0</v>
       </c>
       <c r="E2929" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2929" t="s">
-        <v>3800</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2930" spans="1:6" x14ac:dyDescent="0.3">
@@ -68155,19 +68155,19 @@
         <v>3034</v>
       </c>
       <c r="B2930" t="s">
-        <v>3801</v>
+        <v>3809</v>
       </c>
       <c r="C2930" t="s">
         <v>3060</v>
       </c>
-      <c r="D2930" t="s">
-        <v>3061</v>
+      <c r="D2930">
+        <v>0</v>
       </c>
       <c r="E2930" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2930" t="s">
-        <v>3802</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="2931" spans="1:6" x14ac:dyDescent="0.3">
@@ -68175,19 +68175,19 @@
         <v>3034</v>
       </c>
       <c r="B2931" t="s">
-        <v>3803</v>
+        <v>3811</v>
       </c>
       <c r="C2931" t="s">
         <v>3060</v>
       </c>
-      <c r="D2931" t="s">
-        <v>3061</v>
+      <c r="D2931">
+        <v>0</v>
       </c>
       <c r="E2931" t="s">
-        <v>60</v>
+        <v>5470</v>
       </c>
       <c r="F2931" t="s">
-        <v>3804</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="2932" spans="1:6" x14ac:dyDescent="0.3">
@@ -68195,19 +68195,19 @@
         <v>3034</v>
       </c>
       <c r="B2932" t="s">
-        <v>3805</v>
+        <v>3813</v>
       </c>
       <c r="C2932" t="s">
         <v>3060</v>
       </c>
-      <c r="D2932" t="s">
-        <v>3061</v>
-      </c>
-      <c r="E2932" t="s">
-        <v>60</v>
+      <c r="D2932">
+        <v>0</v>
+      </c>
+      <c r="E2932" s="3" t="s">
+        <v>5514</v>
       </c>
       <c r="F2932" t="s">
-        <v>3806</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="2933" spans="1:6" x14ac:dyDescent="0.3">
@@ -68215,7 +68215,7 @@
         <v>3034</v>
       </c>
       <c r="B2933" t="s">
-        <v>3807</v>
+        <v>3815</v>
       </c>
       <c r="C2933" t="s">
         <v>3060</v>
@@ -68227,7 +68227,7 @@
         <v>5470</v>
       </c>
       <c r="F2933" t="s">
-        <v>3808</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="2934" spans="1:6" x14ac:dyDescent="0.3">
@@ -68235,19 +68235,19 @@
         <v>3034</v>
       </c>
       <c r="B2934" t="s">
-        <v>3809</v>
+        <v>3817</v>
       </c>
       <c r="C2934" t="s">
         <v>3060</v>
       </c>
-      <c r="D2934">
-        <v>0</v>
+      <c r="D2934" t="s">
+        <v>3061</v>
       </c>
       <c r="E2934" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2934" t="s">
-        <v>3810</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="2935" spans="1:6" x14ac:dyDescent="0.3">
@@ -68255,19 +68255,19 @@
         <v>3034</v>
       </c>
       <c r="B2935" t="s">
-        <v>3811</v>
+        <v>3819</v>
       </c>
       <c r="C2935" t="s">
         <v>3060</v>
       </c>
-      <c r="D2935">
-        <v>0</v>
+      <c r="D2935" t="s">
+        <v>3061</v>
       </c>
       <c r="E2935" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2935" t="s">
-        <v>3812</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="2936" spans="1:6" x14ac:dyDescent="0.3">
@@ -68275,7 +68275,7 @@
         <v>3034</v>
       </c>
       <c r="B2936" t="s">
-        <v>3813</v>
+        <v>3825</v>
       </c>
       <c r="C2936" t="s">
         <v>3060</v>
@@ -68287,7 +68287,7 @@
         <v>5514</v>
       </c>
       <c r="F2936" t="s">
-        <v>3814</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="2937" spans="1:6" x14ac:dyDescent="0.3">
@@ -68295,19 +68295,19 @@
         <v>3034</v>
       </c>
       <c r="B2937" t="s">
-        <v>3815</v>
+        <v>3827</v>
       </c>
       <c r="C2937" t="s">
         <v>3060</v>
       </c>
-      <c r="D2937">
-        <v>0</v>
+      <c r="D2937" t="s">
+        <v>3061</v>
       </c>
       <c r="E2937" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2937" t="s">
-        <v>3816</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="2938" spans="1:6" x14ac:dyDescent="0.3">
@@ -68315,7 +68315,7 @@
         <v>3034</v>
       </c>
       <c r="B2938" t="s">
-        <v>3817</v>
+        <v>3829</v>
       </c>
       <c r="C2938" t="s">
         <v>3060</v>
@@ -68327,7 +68327,7 @@
         <v>3062</v>
       </c>
       <c r="F2938" t="s">
-        <v>3818</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="2939" spans="1:6" x14ac:dyDescent="0.3">
@@ -68335,7 +68335,7 @@
         <v>3034</v>
       </c>
       <c r="B2939" t="s">
-        <v>3819</v>
+        <v>3831</v>
       </c>
       <c r="C2939" t="s">
         <v>3060</v>
@@ -68347,7 +68347,7 @@
         <v>3062</v>
       </c>
       <c r="F2939" t="s">
-        <v>3820</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="2940" spans="1:6" x14ac:dyDescent="0.3">
@@ -68355,19 +68355,19 @@
         <v>3034</v>
       </c>
       <c r="B2940" t="s">
-        <v>3825</v>
+        <v>3833</v>
       </c>
       <c r="C2940" t="s">
         <v>3060</v>
       </c>
-      <c r="D2940">
-        <v>0</v>
-      </c>
-      <c r="E2940" s="3" t="s">
-        <v>5514</v>
+      <c r="D2940" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E2940" t="s">
+        <v>5470</v>
       </c>
       <c r="F2940" t="s">
-        <v>3826</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="2941" spans="1:6" x14ac:dyDescent="0.3">
@@ -68375,7 +68375,7 @@
         <v>3034</v>
       </c>
       <c r="B2941" t="s">
-        <v>3827</v>
+        <v>3835</v>
       </c>
       <c r="C2941" t="s">
         <v>3060</v>
@@ -68387,7 +68387,7 @@
         <v>3062</v>
       </c>
       <c r="F2941" t="s">
-        <v>3828</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="2942" spans="1:6" x14ac:dyDescent="0.3">
@@ -68395,7 +68395,7 @@
         <v>3034</v>
       </c>
       <c r="B2942" t="s">
-        <v>3829</v>
+        <v>3837</v>
       </c>
       <c r="C2942" t="s">
         <v>3060</v>
@@ -68407,7 +68407,7 @@
         <v>3062</v>
       </c>
       <c r="F2942" t="s">
-        <v>3830</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="2943" spans="1:6" x14ac:dyDescent="0.3">
@@ -68415,7 +68415,7 @@
         <v>3034</v>
       </c>
       <c r="B2943" t="s">
-        <v>3831</v>
+        <v>3839</v>
       </c>
       <c r="C2943" t="s">
         <v>3060</v>
@@ -68427,7 +68427,7 @@
         <v>3062</v>
       </c>
       <c r="F2943" t="s">
-        <v>3832</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="2944" spans="1:6" x14ac:dyDescent="0.3">
@@ -68435,7 +68435,7 @@
         <v>3034</v>
       </c>
       <c r="B2944" t="s">
-        <v>3833</v>
+        <v>3841</v>
       </c>
       <c r="C2944" t="s">
         <v>3060</v>
@@ -68444,10 +68444,10 @@
         <v>3061</v>
       </c>
       <c r="E2944" t="s">
-        <v>5470</v>
+        <v>3062</v>
       </c>
       <c r="F2944" t="s">
-        <v>3834</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="2945" spans="1:6" x14ac:dyDescent="0.3">
@@ -68455,19 +68455,19 @@
         <v>3034</v>
       </c>
       <c r="B2945" t="s">
-        <v>3835</v>
+        <v>3846</v>
       </c>
       <c r="C2945" t="s">
         <v>3060</v>
       </c>
-      <c r="D2945" t="s">
-        <v>3061</v>
+      <c r="D2945">
+        <v>0</v>
       </c>
       <c r="E2945" t="s">
-        <v>3062</v>
+        <v>5470</v>
       </c>
       <c r="F2945" t="s">
-        <v>3836</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="2946" spans="1:6" x14ac:dyDescent="0.3">
@@ -68475,7 +68475,7 @@
         <v>3034</v>
       </c>
       <c r="B2946" t="s">
-        <v>3837</v>
+        <v>3848</v>
       </c>
       <c r="C2946" t="s">
         <v>3060</v>
@@ -68487,7 +68487,7 @@
         <v>3062</v>
       </c>
       <c r="F2946" t="s">
-        <v>3838</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2947" spans="1:6" x14ac:dyDescent="0.3">
@@ -68495,19 +68495,19 @@
         <v>3034</v>
       </c>
       <c r="B2947" t="s">
-        <v>3839</v>
+        <v>3959</v>
       </c>
       <c r="C2947" t="s">
         <v>3060</v>
       </c>
-      <c r="D2947" t="s">
-        <v>3061</v>
+      <c r="D2947">
+        <v>0</v>
       </c>
       <c r="E2947" t="s">
-        <v>3062</v>
+        <v>5438</v>
       </c>
       <c r="F2947" t="s">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="2948" spans="1:6" x14ac:dyDescent="0.3">
@@ -68515,19 +68515,19 @@
         <v>3034</v>
       </c>
       <c r="B2948" t="s">
-        <v>3841</v>
+        <v>3965</v>
       </c>
       <c r="C2948" t="s">
         <v>3060</v>
       </c>
-      <c r="D2948" t="s">
-        <v>3061</v>
+      <c r="D2948">
+        <v>0</v>
       </c>
       <c r="E2948" t="s">
-        <v>3062</v>
+        <v>5438</v>
       </c>
       <c r="F2948" t="s">
-        <v>3842</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="2949" spans="1:6" x14ac:dyDescent="0.3">
@@ -68535,7 +68535,7 @@
         <v>3034</v>
       </c>
       <c r="B2949" t="s">
-        <v>3846</v>
+        <v>3978</v>
       </c>
       <c r="C2949" t="s">
         <v>3060</v>
@@ -68544,10 +68544,10 @@
         <v>0</v>
       </c>
       <c r="E2949" t="s">
-        <v>5470</v>
+        <v>3979</v>
       </c>
       <c r="F2949" t="s">
-        <v>3847</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2950" spans="1:6" x14ac:dyDescent="0.3">
@@ -68555,7 +68555,7 @@
         <v>3034</v>
       </c>
       <c r="B2950" t="s">
-        <v>3848</v>
+        <v>3799</v>
       </c>
       <c r="C2950" t="s">
         <v>3060</v>
@@ -68564,10 +68564,10 @@
         <v>3061</v>
       </c>
       <c r="E2950" t="s">
-        <v>3062</v>
+        <v>60</v>
       </c>
       <c r="F2950" t="s">
-        <v>3849</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="2951" spans="1:6" x14ac:dyDescent="0.3">
@@ -68575,19 +68575,19 @@
         <v>3034</v>
       </c>
       <c r="B2951" t="s">
-        <v>3959</v>
+        <v>3801</v>
       </c>
       <c r="C2951" t="s">
         <v>3060</v>
       </c>
-      <c r="D2951">
-        <v>0</v>
+      <c r="D2951" t="s">
+        <v>3061</v>
       </c>
       <c r="E2951" t="s">
-        <v>5438</v>
+        <v>60</v>
       </c>
       <c r="F2951" t="s">
-        <v>3960</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="2952" spans="1:6" x14ac:dyDescent="0.3">
@@ -68595,7 +68595,7 @@
         <v>3034</v>
       </c>
       <c r="B2952" t="s">
-        <v>3965</v>
+        <v>3984</v>
       </c>
       <c r="C2952" t="s">
         <v>3060</v>
@@ -68607,7 +68607,7 @@
         <v>5438</v>
       </c>
       <c r="F2952" t="s">
-        <v>3966</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="2953" spans="1:6" x14ac:dyDescent="0.3">
@@ -68615,7 +68615,7 @@
         <v>3034</v>
       </c>
       <c r="B2953" t="s">
-        <v>3978</v>
+        <v>3994</v>
       </c>
       <c r="C2953" t="s">
         <v>3060</v>
@@ -68624,10 +68624,10 @@
         <v>0</v>
       </c>
       <c r="E2953" t="s">
-        <v>3979</v>
+        <v>5438</v>
       </c>
       <c r="F2953" t="s">
-        <v>1000</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="2954" spans="1:6" x14ac:dyDescent="0.3">
@@ -68635,19 +68635,19 @@
         <v>3034</v>
       </c>
       <c r="B2954" t="s">
-        <v>3980</v>
+        <v>4004</v>
       </c>
       <c r="C2954" t="s">
         <v>3060</v>
       </c>
-      <c r="D2954" t="s">
-        <v>3061</v>
+      <c r="D2954">
+        <v>0</v>
       </c>
       <c r="E2954" t="s">
-        <v>60</v>
+        <v>5438</v>
       </c>
       <c r="F2954" t="s">
-        <v>3981</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="2955" spans="1:6" x14ac:dyDescent="0.3">
@@ -68655,19 +68655,19 @@
         <v>3034</v>
       </c>
       <c r="B2955" t="s">
-        <v>3982</v>
+        <v>4012</v>
       </c>
       <c r="C2955" t="s">
         <v>3060</v>
       </c>
-      <c r="D2955" t="s">
-        <v>3061</v>
+      <c r="D2955">
+        <v>0</v>
       </c>
       <c r="E2955" t="s">
-        <v>60</v>
+        <v>5438</v>
       </c>
       <c r="F2955" t="s">
-        <v>3983</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="2956" spans="1:6" x14ac:dyDescent="0.3">
@@ -68675,19 +68675,19 @@
         <v>3034</v>
       </c>
       <c r="B2956" t="s">
-        <v>3984</v>
+        <v>3803</v>
       </c>
       <c r="C2956" t="s">
         <v>3060</v>
       </c>
-      <c r="D2956">
-        <v>0</v>
+      <c r="D2956" t="s">
+        <v>3061</v>
       </c>
       <c r="E2956" t="s">
-        <v>5438</v>
+        <v>60</v>
       </c>
       <c r="F2956" t="s">
-        <v>3985</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="2957" spans="1:6" x14ac:dyDescent="0.3">
@@ -68695,19 +68695,19 @@
         <v>3034</v>
       </c>
       <c r="B2957" t="s">
-        <v>3994</v>
+        <v>3805</v>
       </c>
       <c r="C2957" t="s">
         <v>3060</v>
       </c>
-      <c r="D2957">
-        <v>0</v>
+      <c r="D2957" t="s">
+        <v>3061</v>
       </c>
       <c r="E2957" t="s">
-        <v>5438</v>
+        <v>60</v>
       </c>
       <c r="F2957" t="s">
-        <v>3995</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="2958" spans="1:6" x14ac:dyDescent="0.3">
@@ -68715,19 +68715,19 @@
         <v>3034</v>
       </c>
       <c r="B2958" t="s">
-        <v>4004</v>
+        <v>3980</v>
       </c>
       <c r="C2958" t="s">
         <v>3060</v>
       </c>
-      <c r="D2958">
-        <v>0</v>
+      <c r="D2958" t="s">
+        <v>3061</v>
       </c>
       <c r="E2958" t="s">
-        <v>5438</v>
+        <v>60</v>
       </c>
       <c r="F2958" t="s">
-        <v>4005</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="2959" spans="1:6" x14ac:dyDescent="0.3">
@@ -68735,146 +68735,62 @@
         <v>3034</v>
       </c>
       <c r="B2959" t="s">
-        <v>4012</v>
+        <v>3982</v>
       </c>
       <c r="C2959" t="s">
         <v>3060</v>
       </c>
-      <c r="D2959">
-        <v>0</v>
+      <c r="D2959" t="s">
+        <v>3061</v>
       </c>
       <c r="E2959" t="s">
-        <v>5438</v>
+        <v>60</v>
       </c>
       <c r="F2959" t="s">
-        <v>4013</v>
-      </c>
-    </row>
-    <row r="2960" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2960" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B2960" t="s">
-        <v>3715</v>
-      </c>
-      <c r="C2960" t="s">
-        <v>5824</v>
-      </c>
-      <c r="E2960" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2961" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2961" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B2961" t="s">
-        <v>3114</v>
-      </c>
-      <c r="C2961" t="s">
-        <v>5825</v>
-      </c>
-      <c r="E2961" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2962" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2962" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B2962" t="s">
-        <v>3092</v>
-      </c>
-      <c r="C2962" t="s">
-        <v>5826</v>
-      </c>
-      <c r="E2962" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2963" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2963" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B2963" t="s">
-        <v>3148</v>
-      </c>
-      <c r="C2963" t="s">
-        <v>5827</v>
-      </c>
-      <c r="E2963" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2964" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2964" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B2964" t="s">
-        <v>3475</v>
-      </c>
-      <c r="C2964" t="s">
-        <v>5828</v>
-      </c>
-      <c r="E2964" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2965" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2965" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B2965" t="s">
-        <v>3731</v>
-      </c>
-      <c r="C2965" t="s">
-        <v>5829</v>
-      </c>
-      <c r="E2965" t="s">
-        <v>60</v>
+        <v>3983</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2965" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F2965">
-      <sortCondition ref="A1:A2965"/>
+  <autoFilter ref="A1:F2959" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F2959">
+      <sortCondition ref="A1:A2959"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B2802:B2924">
-    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
+  <conditionalFormatting sqref="F2777:F2801">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2777:F2801">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  <conditionalFormatting sqref="B2928">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2932">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  <conditionalFormatting sqref="B2928:B2947">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2932:B2951">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  <conditionalFormatting sqref="C2928">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2932">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2932:C2950">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  <conditionalFormatting sqref="C2928:C2946">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1484">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1383">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1374">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1386">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1427">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2493 C2951:C2959 C2965:C2967 C2969:C1048576 B2964 B2962 B2960 C1485:C1799 C1384:C1385 C1:C1373 C1375:C1382 C1387:C1426 C1428:C1483 C1811:C2492 C2494:C2924">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  <conditionalFormatting sqref="C2959:C2961 F2493 C2947:C2955 C2963:C1048576 B2956 C1485:C1799 C1384:C1385 C1:C1373 C1375:C1382 C1387:C1426 C1428:C1483 C1811:C2492 C2494:C2830 C2880:C2921 C2832:C2878">
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2802:B2921">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/NamingTable.xlsx
+++ b/resources/NamingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstern\Documents\GitHub\effective_property_tax\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4807894F-3467-40B3-BE4F-0973AD83B059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9D190-9BFE-45A7-AB7D-1B8D31AC050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13230" uniqueCount="5832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13233" uniqueCount="5833">
   <si>
     <t>County</t>
   </si>
@@ -17533,6 +17533,9 @@
   </si>
   <si>
     <t>154SSA</t>
+  </si>
+  <si>
+    <t>Home Equity Assurance District</t>
   </si>
 </sst>
 </file>
@@ -18060,8 +18063,8 @@
   <dimension ref="A1:F2959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23951,6 +23954,9 @@
       <c r="D349">
         <v>110040000</v>
       </c>
+      <c r="E349" t="s">
+        <v>5832</v>
+      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
@@ -23965,6 +23971,9 @@
       <c r="D350">
         <v>110030000</v>
       </c>
+      <c r="E350" t="s">
+        <v>5832</v>
+      </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
@@ -26137,6 +26146,9 @@
       </c>
       <c r="D478">
         <v>110020000</v>
+      </c>
+      <c r="E478" t="s">
+        <v>5832</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -47986,7 +47998,7 @@
         <v>60</v>
       </c>
       <c r="F1798" t="str">
-        <f>C1798</f>
+        <f t="shared" ref="F1798:F1811" si="0">C1798</f>
         <v>VOLO SSA #9</v>
       </c>
     </row>
@@ -48004,7 +48016,7 @@
         <v>60</v>
       </c>
       <c r="F1799" t="str">
-        <f>C1799</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #8</v>
       </c>
     </row>
@@ -48022,7 +48034,7 @@
         <v>60</v>
       </c>
       <c r="F1800" t="str">
-        <f>C1800</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #6</v>
       </c>
     </row>
@@ -48040,7 +48052,7 @@
         <v>60</v>
       </c>
       <c r="F1801" t="str">
-        <f>C1801</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #5</v>
       </c>
     </row>
@@ -48058,7 +48070,7 @@
         <v>60</v>
       </c>
       <c r="F1802" t="str">
-        <f>C1802</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #4</v>
       </c>
     </row>
@@ -48076,7 +48088,7 @@
         <v>60</v>
       </c>
       <c r="F1803" t="str">
-        <f>C1803</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #3</v>
       </c>
     </row>
@@ -48094,7 +48106,7 @@
         <v>60</v>
       </c>
       <c r="F1804" t="str">
-        <f>C1804</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #2</v>
       </c>
     </row>
@@ -48112,7 +48124,7 @@
         <v>60</v>
       </c>
       <c r="F1805" t="str">
-        <f>C1805</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #18</v>
       </c>
     </row>
@@ -48130,7 +48142,7 @@
         <v>60</v>
       </c>
       <c r="F1806" t="str">
-        <f>C1806</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #17</v>
       </c>
     </row>
@@ -48148,7 +48160,7 @@
         <v>60</v>
       </c>
       <c r="F1807" t="str">
-        <f>C1807</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #16</v>
       </c>
     </row>
@@ -48166,7 +48178,7 @@
         <v>60</v>
       </c>
       <c r="F1808" t="str">
-        <f>C1808</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #15</v>
       </c>
     </row>
@@ -48184,7 +48196,7 @@
         <v>60</v>
       </c>
       <c r="F1809" t="str">
-        <f>C1809</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #14</v>
       </c>
     </row>
@@ -48202,7 +48214,7 @@
         <v>60</v>
       </c>
       <c r="F1810" t="str">
-        <f>C1810</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #11</v>
       </c>
     </row>
@@ -48220,7 +48232,7 @@
         <v>60</v>
       </c>
       <c r="F1811" t="str">
-        <f>C1811</f>
+        <f t="shared" si="0"/>
         <v>VOLO SSA #10</v>
       </c>
     </row>
@@ -48295,7 +48307,7 @@
         <v>60</v>
       </c>
       <c r="F1815" t="str">
-        <f>C1815</f>
+        <f t="shared" ref="F1815:F1820" si="1">C1815</f>
         <v>VERNON HILLS SSA #6</v>
       </c>
     </row>
@@ -48313,7 +48325,7 @@
         <v>60</v>
       </c>
       <c r="F1816" t="str">
-        <f>C1816</f>
+        <f t="shared" si="1"/>
         <v>VERNON HILLS SSA #5</v>
       </c>
     </row>
@@ -48331,7 +48343,7 @@
         <v>60</v>
       </c>
       <c r="F1817" t="str">
-        <f>C1817</f>
+        <f t="shared" si="1"/>
         <v>VERNON HILLS SSA #4</v>
       </c>
     </row>
@@ -48349,7 +48361,7 @@
         <v>60</v>
       </c>
       <c r="F1818" t="str">
-        <f>C1818</f>
+        <f t="shared" si="1"/>
         <v>VERNON HILLS SSA #3</v>
       </c>
     </row>
@@ -48367,7 +48379,7 @@
         <v>60</v>
       </c>
       <c r="F1819" t="str">
-        <f>C1819</f>
+        <f t="shared" si="1"/>
         <v>VERNON HILLS SSA #2</v>
       </c>
     </row>
@@ -48385,7 +48397,7 @@
         <v>60</v>
       </c>
       <c r="F1820" t="str">
-        <f>C1820</f>
+        <f t="shared" si="1"/>
         <v>VERNON HILLS SSA #1</v>
       </c>
     </row>
@@ -49394,7 +49406,7 @@
         <v>60</v>
       </c>
       <c r="F1879" t="str">
-        <f>C1879</f>
+        <f t="shared" ref="F1879:F1885" si="2">C1879</f>
         <v>ROUND LAKE SSA #4 - LAKEWOOD GROVE</v>
       </c>
     </row>
@@ -49412,7 +49424,7 @@
         <v>60</v>
       </c>
       <c r="F1880" t="str">
-        <f>C1880</f>
+        <f t="shared" si="2"/>
         <v>ROUND LAKE SSA #3 - LAKEWOOD GROVE</v>
       </c>
     </row>
@@ -49430,7 +49442,7 @@
         <v>60</v>
       </c>
       <c r="F1881" t="str">
-        <f>C1881</f>
+        <f t="shared" si="2"/>
         <v>ROUND LAKE SSA #2 - PW</v>
       </c>
     </row>
@@ -49448,7 +49460,7 @@
         <v>60</v>
       </c>
       <c r="F1882" t="str">
-        <f>C1882</f>
+        <f t="shared" si="2"/>
         <v>ROUND LAKE SSA #2 - LAKEWOOD GROVE</v>
       </c>
     </row>
@@ -49466,7 +49478,7 @@
         <v>60</v>
       </c>
       <c r="F1883" t="str">
-        <f>C1883</f>
+        <f t="shared" si="2"/>
         <v>ROUND LAKE SSA #1 - LAKEWOOD GROVE</v>
       </c>
     </row>
@@ -49484,7 +49496,7 @@
         <v>60</v>
       </c>
       <c r="F1884" t="str">
-        <f>C1884</f>
+        <f t="shared" si="2"/>
         <v>ROUND LAKE SSA #1 - BRIGHT MEADOWS</v>
       </c>
     </row>
@@ -49502,7 +49514,7 @@
         <v>60</v>
       </c>
       <c r="F1885" t="str">
-        <f>C1885</f>
+        <f t="shared" si="2"/>
         <v>ROUND LAKE SSA #1</v>
       </c>
     </row>
@@ -49765,7 +49777,7 @@
         <v>60</v>
       </c>
       <c r="F1899" t="str">
-        <f>C1899</f>
+        <f t="shared" ref="F1899:F1927" si="3">C1899</f>
         <v>RIVERWOODS SSA #9</v>
       </c>
     </row>
@@ -49783,7 +49795,7 @@
         <v>60</v>
       </c>
       <c r="F1900" t="str">
-        <f>C1900</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #8</v>
       </c>
     </row>
@@ -49801,7 +49813,7 @@
         <v>60</v>
       </c>
       <c r="F1901" t="str">
-        <f>C1901</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #7</v>
       </c>
     </row>
@@ -49819,7 +49831,7 @@
         <v>60</v>
       </c>
       <c r="F1902" t="str">
-        <f>C1902</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #6</v>
       </c>
     </row>
@@ -49837,7 +49849,7 @@
         <v>60</v>
       </c>
       <c r="F1903" t="str">
-        <f>C1903</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #5</v>
       </c>
     </row>
@@ -49855,7 +49867,7 @@
         <v>60</v>
       </c>
       <c r="F1904" t="str">
-        <f>C1904</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #4</v>
       </c>
     </row>
@@ -49873,7 +49885,7 @@
         <v>60</v>
       </c>
       <c r="F1905" t="str">
-        <f>C1905</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #32</v>
       </c>
     </row>
@@ -49891,7 +49903,7 @@
         <v>60</v>
       </c>
       <c r="F1906" t="str">
-        <f>C1906</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #31</v>
       </c>
     </row>
@@ -49909,7 +49921,7 @@
         <v>60</v>
       </c>
       <c r="F1907" t="str">
-        <f>C1907</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #30</v>
       </c>
     </row>
@@ -49927,7 +49939,7 @@
         <v>60</v>
       </c>
       <c r="F1908" t="str">
-        <f>C1908</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #3</v>
       </c>
     </row>
@@ -49945,7 +49957,7 @@
         <v>60</v>
       </c>
       <c r="F1909" t="str">
-        <f>C1909</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #29</v>
       </c>
     </row>
@@ -49963,7 +49975,7 @@
         <v>60</v>
       </c>
       <c r="F1910" t="str">
-        <f>C1910</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #28</v>
       </c>
     </row>
@@ -49981,7 +49993,7 @@
         <v>60</v>
       </c>
       <c r="F1911" t="str">
-        <f>C1911</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #27</v>
       </c>
     </row>
@@ -49999,7 +50011,7 @@
         <v>60</v>
       </c>
       <c r="F1912" t="str">
-        <f>C1912</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #26</v>
       </c>
     </row>
@@ -50017,7 +50029,7 @@
         <v>60</v>
       </c>
       <c r="F1913" t="str">
-        <f>C1913</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #25</v>
       </c>
     </row>
@@ -50035,7 +50047,7 @@
         <v>60</v>
       </c>
       <c r="F1914" t="str">
-        <f>C1914</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #24</v>
       </c>
     </row>
@@ -50053,7 +50065,7 @@
         <v>60</v>
       </c>
       <c r="F1915" t="str">
-        <f>C1915</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #23</v>
       </c>
     </row>
@@ -50071,7 +50083,7 @@
         <v>60</v>
       </c>
       <c r="F1916" t="str">
-        <f>C1916</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #22</v>
       </c>
     </row>
@@ -50089,7 +50101,7 @@
         <v>60</v>
       </c>
       <c r="F1917" t="str">
-        <f>C1917</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #21</v>
       </c>
     </row>
@@ -50107,7 +50119,7 @@
         <v>60</v>
       </c>
       <c r="F1918" t="str">
-        <f>C1918</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #20</v>
       </c>
     </row>
@@ -50125,7 +50137,7 @@
         <v>60</v>
       </c>
       <c r="F1919" t="str">
-        <f>C1919</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #19</v>
       </c>
     </row>
@@ -50143,7 +50155,7 @@
         <v>60</v>
       </c>
       <c r="F1920" t="str">
-        <f>C1920</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #18</v>
       </c>
     </row>
@@ -50161,7 +50173,7 @@
         <v>60</v>
       </c>
       <c r="F1921" t="str">
-        <f>C1921</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #17</v>
       </c>
     </row>
@@ -50179,7 +50191,7 @@
         <v>60</v>
       </c>
       <c r="F1922" t="str">
-        <f>C1922</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #16</v>
       </c>
     </row>
@@ -50197,7 +50209,7 @@
         <v>60</v>
       </c>
       <c r="F1923" t="str">
-        <f>C1923</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #15</v>
       </c>
     </row>
@@ -50215,7 +50227,7 @@
         <v>60</v>
       </c>
       <c r="F1924" t="str">
-        <f>C1924</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #14</v>
       </c>
     </row>
@@ -50233,7 +50245,7 @@
         <v>60</v>
       </c>
       <c r="F1925" t="str">
-        <f>C1925</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #12</v>
       </c>
     </row>
@@ -50251,7 +50263,7 @@
         <v>60</v>
       </c>
       <c r="F1926" t="str">
-        <f>C1926</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #11</v>
       </c>
     </row>
@@ -50269,7 +50281,7 @@
         <v>60</v>
       </c>
       <c r="F1927" t="str">
-        <f>C1927</f>
+        <f t="shared" si="3"/>
         <v>RIVERWOODS SSA #10</v>
       </c>
     </row>
@@ -50460,7 +50472,7 @@
         <v>60</v>
       </c>
       <c r="F1937" t="str">
-        <f>C1937</f>
+        <f t="shared" ref="F1937:F1945" si="4">C1937</f>
         <v>NORTH BARRINGTON SSA #7</v>
       </c>
     </row>
@@ -50478,7 +50490,7 @@
         <v>60</v>
       </c>
       <c r="F1938" t="str">
-        <f>C1938</f>
+        <f t="shared" si="4"/>
         <v>NORTH BARRINGTON SSA #6</v>
       </c>
     </row>
@@ -50496,7 +50508,7 @@
         <v>60</v>
       </c>
       <c r="F1939" t="str">
-        <f>C1939</f>
+        <f t="shared" si="4"/>
         <v>NORTH BARRINGTON SSA #5</v>
       </c>
     </row>
@@ -50514,7 +50526,7 @@
         <v>60</v>
       </c>
       <c r="F1940" t="str">
-        <f>C1940</f>
+        <f t="shared" si="4"/>
         <v>NORTH BARRINGTON SSA #18</v>
       </c>
     </row>
@@ -50532,7 +50544,7 @@
         <v>60</v>
       </c>
       <c r="F1941" t="str">
-        <f>C1941</f>
+        <f t="shared" si="4"/>
         <v>NORTH BARRINGTON SSA #18</v>
       </c>
     </row>
@@ -50550,7 +50562,7 @@
         <v>60</v>
       </c>
       <c r="F1942" t="str">
-        <f>C1942</f>
+        <f t="shared" si="4"/>
         <v>NORTH BARRINGTON SSA #17</v>
       </c>
     </row>
@@ -50568,7 +50580,7 @@
         <v>60</v>
       </c>
       <c r="F1943" t="str">
-        <f>C1943</f>
+        <f t="shared" si="4"/>
         <v>NORTH BARRINGTON SSA #15</v>
       </c>
     </row>
@@ -50586,7 +50598,7 @@
         <v>60</v>
       </c>
       <c r="F1944" t="str">
-        <f>C1944</f>
+        <f t="shared" si="4"/>
         <v>NORTH BARRINGTON SSA #14</v>
       </c>
     </row>
@@ -50604,7 +50616,7 @@
         <v>60</v>
       </c>
       <c r="F1945" t="str">
-        <f>C1945</f>
+        <f t="shared" si="4"/>
         <v>NORTH BARRINGTON SSA #13</v>
       </c>
     </row>
@@ -50793,7 +50805,7 @@
         <v>60</v>
       </c>
       <c r="F1955" t="str">
-        <f>C1955</f>
+        <f t="shared" ref="F1955:F1966" si="5">C1955</f>
         <v>METTAWA SSA #8Z</v>
       </c>
     </row>
@@ -50811,7 +50823,7 @@
         <v>60</v>
       </c>
       <c r="F1956" t="str">
-        <f>C1956</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8Y</v>
       </c>
     </row>
@@ -50829,7 +50841,7 @@
         <v>60</v>
       </c>
       <c r="F1957" t="str">
-        <f>C1957</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8X</v>
       </c>
     </row>
@@ -50847,7 +50859,7 @@
         <v>60</v>
       </c>
       <c r="F1958" t="str">
-        <f>C1958</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8W</v>
       </c>
     </row>
@@ -50865,7 +50877,7 @@
         <v>60</v>
       </c>
       <c r="F1959" t="str">
-        <f>C1959</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8V</v>
       </c>
     </row>
@@ -50883,7 +50895,7 @@
         <v>60</v>
       </c>
       <c r="F1960" t="str">
-        <f>C1960</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8U</v>
       </c>
     </row>
@@ -50901,7 +50913,7 @@
         <v>60</v>
       </c>
       <c r="F1961" t="str">
-        <f>C1961</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8T</v>
       </c>
     </row>
@@ -50919,7 +50931,7 @@
         <v>60</v>
       </c>
       <c r="F1962" t="str">
-        <f>C1962</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8S</v>
       </c>
     </row>
@@ -50937,7 +50949,7 @@
         <v>60</v>
       </c>
       <c r="F1963" t="str">
-        <f>C1963</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8R</v>
       </c>
     </row>
@@ -50955,7 +50967,7 @@
         <v>60</v>
       </c>
       <c r="F1964" t="str">
-        <f>C1964</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8Q</v>
       </c>
     </row>
@@ -50973,7 +50985,7 @@
         <v>60</v>
       </c>
       <c r="F1965" t="str">
-        <f>C1965</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8P</v>
       </c>
     </row>
@@ -50991,7 +51003,7 @@
         <v>60</v>
       </c>
       <c r="F1966" t="str">
-        <f>C1966</f>
+        <f t="shared" si="5"/>
         <v>METTAWA SSA #8O</v>
       </c>
     </row>
@@ -51516,7 +51528,7 @@
         <v>60</v>
       </c>
       <c r="F1996" t="str">
-        <f>C1996</f>
+        <f t="shared" ref="F1996:F2010" si="6">C1996</f>
         <v>METTAWA SSA #6Q</v>
       </c>
     </row>
@@ -51534,7 +51546,7 @@
         <v>60</v>
       </c>
       <c r="F1997" t="str">
-        <f>C1997</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6P</v>
       </c>
     </row>
@@ -51552,7 +51564,7 @@
         <v>60</v>
       </c>
       <c r="F1998" t="str">
-        <f>C1998</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6O</v>
       </c>
     </row>
@@ -51570,7 +51582,7 @@
         <v>60</v>
       </c>
       <c r="F1999" t="str">
-        <f>C1999</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6N</v>
       </c>
     </row>
@@ -51588,7 +51600,7 @@
         <v>60</v>
       </c>
       <c r="F2000" t="str">
-        <f>C2000</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6M</v>
       </c>
     </row>
@@ -51606,7 +51618,7 @@
         <v>60</v>
       </c>
       <c r="F2001" t="str">
-        <f>C2001</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6L</v>
       </c>
     </row>
@@ -51624,7 +51636,7 @@
         <v>60</v>
       </c>
       <c r="F2002" t="str">
-        <f>C2002</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6K</v>
       </c>
     </row>
@@ -51642,7 +51654,7 @@
         <v>60</v>
       </c>
       <c r="F2003" t="str">
-        <f>C2003</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6J</v>
       </c>
     </row>
@@ -51660,7 +51672,7 @@
         <v>60</v>
       </c>
       <c r="F2004" t="str">
-        <f>C2004</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6I</v>
       </c>
     </row>
@@ -51678,7 +51690,7 @@
         <v>60</v>
       </c>
       <c r="F2005" t="str">
-        <f>C2005</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6H</v>
       </c>
     </row>
@@ -51696,7 +51708,7 @@
         <v>60</v>
       </c>
       <c r="F2006" t="str">
-        <f>C2006</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6G</v>
       </c>
     </row>
@@ -51714,7 +51726,7 @@
         <v>60</v>
       </c>
       <c r="F2007" t="str">
-        <f>C2007</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6F</v>
       </c>
     </row>
@@ -51732,7 +51744,7 @@
         <v>60</v>
       </c>
       <c r="F2008" t="str">
-        <f>C2008</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6E</v>
       </c>
     </row>
@@ -51750,7 +51762,7 @@
         <v>60</v>
       </c>
       <c r="F2009" t="str">
-        <f>C2009</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6D</v>
       </c>
     </row>
@@ -51768,7 +51780,7 @@
         <v>60</v>
       </c>
       <c r="F2010" t="str">
-        <f>C2010</f>
+        <f t="shared" si="6"/>
         <v>METTAWA SSA #6C</v>
       </c>
     </row>
